--- a/biology/Médecine/Hôpital_Honoré-Mercier/Hôpital_Honoré-Mercier.xlsx
+++ b/biology/Médecine/Hôpital_Honoré-Mercier/Hôpital_Honoré-Mercier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Honor%C3%A9-Mercier</t>
+          <t>Hôpital_Honoré-Mercier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Honoré-Mercier est un hôpital situé à Saint-Hyacinthe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Honor%C3%A9-Mercier</t>
+          <t>Hôpital_Honoré-Mercier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1902 sous le nom d'hôpital St-Charles, il est situé aux coins des rues Dessaulles et Sainte-Anne (aujourd'hui le Centre d'hébergement de l'Hôtel-Dieu-de-Saint-Hyacinthe). Il voit le jour grâce à l'intervention de Louis-Zéphirin Moreau, évêque de Saint-Hyacinthe, et son coadjuteur Maxime Decelles. La direction est confiée aux Sœurs de la charité de Saint-Hyacinthe. Une clinique d’otorhinolaryngologie est ouverte en 1914 puis un département d'obstétrique en 1924. Un deuxième bâtiment est érigé en 1930 sur le site actuel de l'hôpital.
-Le 26 avril 1964, les Sœurs de la charité endent l'établissement au gouvernement du Québec. Ce dernier le renomme alors Hôpital général de Saint-Hyacinthe. On inaugure un nouveau pavillon le 13 novembre 1971. En 1984, le centre hospitalier est renommé Hôpital Honoré-Mercier, en l'honneur du 9e premier ministre du Québec[1].
+Le 26 avril 1964, les Sœurs de la charité endent l'établissement au gouvernement du Québec. Ce dernier le renomme alors Hôpital général de Saint-Hyacinthe. On inaugure un nouveau pavillon le 13 novembre 1971. En 1984, le centre hospitalier est renommé Hôpital Honoré-Mercier, en l'honneur du 9e premier ministre du Québec.
 </t>
         </is>
       </c>
